--- a/data/eff_subset.xlsx
+++ b/data/eff_subset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LearningMaterials\Slow SQL\AstraTune\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6868E788-C9A4-4F16-82E2-D0504F069B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E16B8-5BA4-4219-AA77-7E9C922755AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{E2F17592-8ABD-4236-A7B3-5D222B35737C}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="246">
   <si>
     <t>instance_id</t>
   </si>
@@ -6921,6 +6921,10 @@
   </si>
   <si>
     <t>financial</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>['\ndef test_case(pred_sqls, sol_sqls, db_name, conn):\n    result = ex_base(pred_sqls, sol_sqls, db_name, conn)\n    assert result == 1, f"ex_base returned {result} but expected 1."\n    result = performance_compare_by_qep(pred_sqls, sol_sqls, db_name, conn)\n    assert result == 1, f"performance_check returned {result} but expected 1."\n    return result\n    ']</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7920,10 +7924,10 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -8021,7 +8025,7 @@
         <v>19</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" customHeight="1">
